--- a/doc/结果码.xlsx
+++ b/doc/结果码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -24,10 +24,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>系统</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>分类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -40,18 +36,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -68,11 +52,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在</t>
+    <t>9999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数不存在或值为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枚举</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -80,11 +76,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统异常</t>
+    <t>需要开发或运维人员查看日志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期、金额、邮箱、URL等参数格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9998</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获取到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数为空[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式错误[]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值非法[]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +154,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -137,7 +173,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -150,8 +186,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -447,219 +498,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="14.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="26.25" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1001</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="4"/>
       <c r="C4" s="2">
         <v>1002</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="D4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="4"/>
       <c r="C5" s="2">
         <v>1003</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
-        <v>9</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="D8" s="2"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
-        <v>10</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
-        <v>11</v>
-      </c>
-      <c r="B10" s="3"/>
+        <v>12</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="E10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3"/>
+        <v>13</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="E11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="B12" s="4"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1">
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
-        <v>14</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1">
+        <v>19</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
+        <v>20</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9"/>
+      <c r="F14" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="2">
-        <v>16</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="2">
-        <v>17</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="2">
-        <v>18</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="2">
-        <v>19</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="2">
-        <v>20</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B7:B12"/>
-    <mergeCell ref="B13:B19"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/结果码.xlsx
+++ b/doc/结果码.xlsx
@@ -100,27 +100,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[]不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[]已存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未获取到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数为空[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数格式错误[]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值非法[]</t>
+    <t>参数为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值非法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未获取到对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对象已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -186,23 +186,23 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,31 +504,32 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="1" customWidth="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -539,55 +540,55 @@
       <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="7"/>
+      <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1001</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="27">
+    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="9"/>
       <c r="C4" s="2">
         <v>1002</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="5" spans="1:6" ht="18.75" customHeight="1">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="2">
         <v>1003</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -595,31 +596,31 @@
       <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>23</v>
+      <c r="D6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -627,72 +628,72 @@
       <c r="A8" s="2">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
+      <c r="B8" s="9"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B9" s="4"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="8"/>
     </row>
     <row r="10" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="2">
         <v>12</v>
       </c>
-      <c r="B10" s="4"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="2">
         <v>13</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="9"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="2">
         <v>18</v>
       </c>
-      <c r="B12" s="4"/>
+      <c r="B12" s="9"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="2">
         <v>19</v>
       </c>
-      <c r="B13" s="4"/>
+      <c r="B13" s="9"/>
       <c r="C13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
         <v>20</v>
       </c>
-      <c r="B14" s="4"/>
+      <c r="B14" s="9"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="1" t="s">
         <v>15</v>
       </c>

--- a/doc/结果码.xlsx
+++ b/doc/结果码.xlsx
@@ -116,11 +116,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>对象不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对象已存在</t>
+    <t>不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>

--- a/doc/结果码.xlsx
+++ b/doc/结果码.xlsx
@@ -100,27 +100,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参数值非法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>未获取到对象</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已存在</t>
+    <t>参数为空[{0}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{0}]不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[{0}]已存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数值非法[{0},{1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数格式错误[{0},{1}]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +507,7 @@
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
@@ -556,7 +556,7 @@
         <v>1001</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
@@ -571,7 +571,7 @@
         <v>1002</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>17</v>
@@ -586,7 +586,7 @@
         <v>1003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>13</v>
@@ -603,10 +603,10 @@
         <v>19</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -618,7 +618,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>14</v>

--- a/doc/结果码.xlsx
+++ b/doc/结果码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>枚举</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>不允许重复</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -84,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日期、金额、邮箱、URL等参数格式错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9998</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -121,6 +113,24 @@
   </si>
   <si>
     <t>参数格式错误[{0},{1}]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、日期、金额、邮箱、URL等参数格式错误
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、枚举
+2、范围</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -173,7 +183,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -200,6 +210,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -500,7 +513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -549,86 +564,86 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
-        <v>1001</v>
+      <c r="C3" s="9" t="s">
+        <v>26</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="20.100000000000001" customHeight="1">
+    <row r="4" spans="1:6" ht="27">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="9"/>
+      <c r="B4" s="10"/>
       <c r="C4" s="2">
         <v>1002</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="9"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2">
         <v>1003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="2">
         <v>9</v>
       </c>
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="2">
         <v>10</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -637,7 +652,7 @@
       <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="8"/>
@@ -646,7 +661,7 @@
       <c r="A10" s="2">
         <v>12</v>
       </c>
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="8"/>
@@ -655,7 +670,7 @@
       <c r="A11" s="2">
         <v>13</v>
       </c>
-      <c r="B11" s="9"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="8"/>
@@ -664,7 +679,9 @@
       <c r="A12" s="2">
         <v>18</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="8"/>
@@ -673,12 +690,12 @@
       <c r="A13" s="2">
         <v>19</v>
       </c>
-      <c r="B13" s="9"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -686,7 +703,7 @@
       <c r="A14" s="2">
         <v>20</v>
       </c>
-      <c r="B14" s="9"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
@@ -695,7 +712,7 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/doc/结果码.xlsx
+++ b/doc/结果码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,6 +131,26 @@
   <si>
     <t>1、枚举
 2、范围</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户名或密码错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认证/授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +203,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -216,6 +236,12 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -511,16 +537,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="7" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
     <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.125" style="1" bestFit="1" customWidth="1"/>
@@ -564,7 +590,7 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -581,7 +607,7 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="10"/>
+      <c r="B4" s="11"/>
       <c r="C4" s="2">
         <v>1002</v>
       </c>
@@ -596,7 +622,7 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="10"/>
+      <c r="B5" s="11"/>
       <c r="C5" s="2">
         <v>1003</v>
       </c>
@@ -611,7 +637,7 @@
       <c r="A6" s="2">
         <v>8</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
@@ -628,7 +654,7 @@
       <c r="A7" s="2">
         <v>9</v>
       </c>
-      <c r="B7" s="10"/>
+      <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
@@ -643,7 +669,7 @@
       <c r="A8" s="2">
         <v>10</v>
       </c>
-      <c r="B8" s="10"/>
+      <c r="B8" s="11"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="8"/>
@@ -652,7 +678,7 @@
       <c r="A9" s="2">
         <v>11</v>
       </c>
-      <c r="B9" s="10"/>
+      <c r="B9" s="11"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="8"/>
@@ -661,7 +687,7 @@
       <c r="A10" s="2">
         <v>12</v>
       </c>
-      <c r="B10" s="10"/>
+      <c r="B10" s="11"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="8"/>
@@ -670,56 +696,86 @@
       <c r="A11" s="2">
         <v>13</v>
       </c>
-      <c r="B11" s="10"/>
+      <c r="B11" s="11"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="2">
-        <v>19</v>
-      </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>15</v>
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="2">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="2"/>
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="2">
+        <v>19</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="2">
         <v>20</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="2" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="1" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="1" t="s">
         <v>14</v>
       </c>
     </row>
+    <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="12"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B12:B14"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B11"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/结果码.xlsx
+++ b/doc/结果码.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,14 +73,6 @@
   </si>
   <si>
     <t>需要开发或运维人员查看日志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9998</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -151,6 +143,10 @@
   </si>
   <si>
     <t>8002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未授权</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,11 +533,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
@@ -594,10 +588,10 @@
         <v>0</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>12</v>
@@ -612,10 +606,10 @@
         <v>1002</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="27">
@@ -627,10 +621,10 @@
         <v>1003</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -641,13 +635,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="20.100000000000001" customHeight="1">
@@ -656,10 +650,10 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>13</v>
@@ -704,13 +698,13 @@
     <row r="12" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="10"/>
       <c r="B12" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="8"/>
     </row>
@@ -718,10 +712,10 @@
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E13" s="8"/>
     </row>
@@ -731,48 +725,37 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="2"/>
+      <c r="D14" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:6" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="2">
         <v>19</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>16</v>
+      <c r="B15" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E15" s="8"/>
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="2">
-        <v>20</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="12"/>
     </row>
     <row r="17" spans="2:2" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="12"/>
     </row>
-    <row r="18" spans="2:2" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B15:B16"/>
+  <mergeCells count="3">
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B11"/>
